--- a/data.xlsx
+++ b/data.xlsx
@@ -16,10 +16,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Arial Unicode MS"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -66,7 +69,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -439,83 +455,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="4" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Mediocre</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="5" t="n"/>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="5" t="n"/>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
+    <row r="6" ht="12.75" customHeight="1" s="3">
+      <c r="A6" s="4" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -128,7 +128,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -142,7 +142,9 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
@@ -155,7 +157,9 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
@@ -169,7 +173,9 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
@@ -183,6 +189,9 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -194,6 +203,9 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
@@ -204,49 +216,64 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="D7" s="0" t="n">
-        <v>4</v>
+      <c r="D7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="D10" s="0" t="n">
-        <v>4</v>
+      <c r="D10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -511,75 +511,190 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
+      <c r="A2" s="5" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="G2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="6" t="n"/>
       <c r="J2" s="7" t="n"/>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="4">
-      <c r="A3" s="5" t="n"/>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
+      <c r="A3" s="5" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="G3" s="6" t="n">
         <v>4</v>
       </c>
       <c r="H3" s="6" t="n"/>
       <c r="I3" s="6" t="n"/>
       <c r="J3" s="7" t="n"/>
+      <c r="K3" s="6" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
+      <c r="A4" s="5" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
       <c r="G4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="J4" s="7" t="n"/>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="A5" s="5" t="n"/>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
+      <c r="A5" s="5" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
       <c r="G5" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1" s="4">
-      <c r="A6" s="5" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
+      <c r="A6" s="5" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="4">
@@ -623,22 +738,22 @@
       <c r="D11" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J11" t="b">
+      <c r="J11" s="6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -18,7 +18,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -70,7 +70,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -80,7 +80,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -90,9 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,316 +466,523 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="5" t="n">
-        <v>45102</v>
-      </c>
-      <c r="B1" s="6" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="6">
+      <c r="A1" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="F1" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>soccer</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>relaxed</t>
+        </is>
+      </c>
+      <c r="J1" s="8">
+        <f>FALSE()</f>
+        <v/>
+      </c>
+      <c r="K1" s="8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="6">
+      <c r="A2" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>soccer</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>tired</t>
+        </is>
+      </c>
+      <c r="J2" s="8">
+        <f>TRUE()</f>
+        <v/>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="6">
+      <c r="A3" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>badminton</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>relaxed</t>
+        </is>
+      </c>
+      <c r="J3" s="8">
+        <f>TRUE()</f>
+        <v/>
+      </c>
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="6">
+      <c r="A4" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Vincent</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>making meal</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
+      </c>
+      <c r="J4" s="8">
+        <f>FALSE()</f>
+        <v/>
+      </c>
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="6">
+      <c r="A5" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="n">
+      <c r="C5" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>video games</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>tired</t>
+        </is>
+      </c>
+      <c r="J5" s="8">
+        <f>FALSE()</f>
+        <v/>
+      </c>
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="6">
+      <c r="A6" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="n"/>
-      <c r="I1" s="6" t="n"/>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="D6" s="8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>basketball</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>tired</t>
+        </is>
+      </c>
+      <c r="J6" s="8">
+        <f>TRUE()</f>
+        <v/>
+      </c>
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="5" t="n">
-        <v>45102</v>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="n">
+    <row r="7" ht="12.75" customHeight="1" s="6">
+      <c r="A7" s="7" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>badminton</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>dying</t>
+        </is>
+      </c>
+      <c r="J7" s="8">
+        <f>TRUE()</f>
+        <v/>
+      </c>
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="6">
+      <c r="A8" s="9" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="7" t="n"/>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>badminton</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="4">
-      <c r="A3" s="5" t="n">
-        <v>45102</v>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="7" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
+    <row r="9" ht="12.75" customHeight="1" s="6">
+      <c r="A9" s="9" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="4">
-      <c r="A4" s="5" t="n">
-        <v>45102</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
+    <row r="10" ht="12.75" customHeight="1" s="6">
+      <c r="A10" s="9" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7" t="n"/>
-      <c r="K4" s="6" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>living</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8" t="inlineStr">
         <is>
           <t>clear sky</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="A5" s="5" t="n">
-        <v>45102</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Vincent</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="4">
-      <c r="A6" s="5" t="n">
-        <v>45102</v>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>clear sky</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="4">
-      <c r="A7" s="6" t="n"/>
-      <c r="D7" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="4">
-      <c r="A8" s="6" t="n"/>
-      <c r="D8" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="4">
-      <c r="A9" s="6" t="n"/>
-      <c r="D9" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" s="4">
-      <c r="A10" s="6" t="n"/>
-      <c r="D10" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" s="4">
-      <c r="A11" s="6" t="n"/>
-      <c r="D11" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I11" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" s="4">
-      <c r="D12" s="6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" s="4">
-      <c r="D13" s="6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" s="4">
-      <c r="D14" s="6" t="n">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="11" ht="12.75" customHeight="1" s="6"/>
+    <row r="12" ht="12.75" customHeight="1" s="6"/>
+    <row r="13" ht="12.75" customHeight="1" s="6"/>
+    <row r="14" ht="12.75" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
